--- a/BugReport.xlsx
+++ b/BugReport.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926D23D6-1B1D-4D62-97EC-FF7C1EDE904F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\PrestaShop-Manual-Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45324D-9019-4FA2-AE49-97F65C337C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BugReport" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>Bug ID</t>
   </si>
@@ -57,68 +62,152 @@
     <t>Screenshot Link</t>
   </si>
   <si>
-    <t>BUG001</t>
-  </si>
-  <si>
-    <t>Newsletter subscription does not show success message</t>
-  </si>
-  <si>
-    <t>1. Go to homepage → 2. Enter email in newsletter → 3. Click "Subscribe"</t>
-  </si>
-  <si>
-    <t>Success message should confirm subscription</t>
-  </si>
-  <si>
-    <t>No message is shown</t>
+    <t>BUG-001</t>
+  </si>
+  <si>
+    <t>BUG-002</t>
+  </si>
+  <si>
+    <t>BUG-003</t>
+  </si>
+  <si>
+    <t>BUG-004</t>
+  </si>
+  <si>
+    <t>BUG-005</t>
+  </si>
+  <si>
+    <t>BUG-006</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Login module</t>
+  </si>
+  <si>
+    <t>The password field is accepting more than maximum limit</t>
+  </si>
+  <si>
+    <t>The email field is accepting more than maximum limit</t>
+  </si>
+  <si>
+    <t>1.Enter password field more than 200 characters
+2.Enter Email address
+3]Click on Sign button</t>
+  </si>
+  <si>
+    <t>User accepted the password</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>(optional link)</t>
-  </si>
-  <si>
-    <t>BUG002</t>
-  </si>
-  <si>
-    <t>Product quantity update in cart not recalculating total price</t>
-  </si>
-  <si>
-    <t>1. Add product to cart → 2. Go to cart → 3. Change quantity → 4. Click update</t>
-  </si>
-  <si>
-    <t>Total price should update</t>
-  </si>
-  <si>
-    <t>Total remains unchanged</t>
+    <t xml:space="preserve">Open </t>
+  </si>
+  <si>
+    <t>User accepted the email</t>
+  </si>
+  <si>
+    <t>Registration module</t>
+  </si>
+  <si>
+    <t>The First Name field is accepting more than maximum limit</t>
+  </si>
+  <si>
+    <t>1.Enter First name field more than 200 characters
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>System should restrict input or show a warning</t>
+  </si>
+  <si>
+    <t>System accepted more than 60 characters</t>
+  </si>
+  <si>
+    <t>The Last Name field is accepting more than maximum limit</t>
+  </si>
+  <si>
+    <t>1.Enter Last name field more than 200 characters
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>1.Enter email address more than 200 characters
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>User should see warning message that "Email address is maximum character"</t>
+  </si>
+  <si>
+    <t>User was registered successfully</t>
+  </si>
+  <si>
+    <t>The birthdate is accepting today's date</t>
+  </si>
+  <si>
+    <t>1.Enter today's birthdate 
+2.Fill in other required fields
+3.Click on Save button</t>
+  </si>
+  <si>
+    <t>User should see warning message that "date should not be today's date"</t>
+  </si>
+  <si>
+    <t>Low to Medium</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Chrome,Firefox,Edge</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>BUG003</t>
-  </si>
-  <si>
-    <t>Broken layout on mobile view for checkout page</t>
-  </si>
-  <si>
-    <t>1. Open checkout page on mobile browser or resize window</t>
-  </si>
-  <si>
-    <t>Layout should adapt for mobile screen</t>
-  </si>
-  <si>
-    <t>Elements overlap on mobile</t>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Password validation is critical for security and user experience—needs prompt fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Email validation is essential to prevent invalid login attempts and user issues.</t>
+  </si>
+  <si>
+    <t>Registration data quality issue; important but not blocking immediate user flow.</t>
+  </si>
+  <si>
+    <t>Same as above, important for data but less urgent than login issues.</t>
+  </si>
+  <si>
+    <t>Critical for user registration integrity; invalid emails can cause downstream problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Usually a minor validation; business impact depends on use case, so lower urgency.</t>
+  </si>
+  <si>
+    <t>User should see warning message that password is too long</t>
+  </si>
+  <si>
+    <t>User should see warning message that email is too long</t>
+  </si>
+  <si>
+    <t>1.Enter email field more than 200 characters
+2.Enter password 
+3.Click on Sign button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +219,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,97 +593,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="26.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.25">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29.25">
-      <c r="A4" t="s">
-        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -599,17 +731,135 @@
       <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
+      <c r="K4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>